--- a/11-908.xlsx
+++ b/11-908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\пары\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_58C2365F32595BE8DEDCA8C75624FD69019027B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F39C938D-F800-4D2F-8C38-61D259ABB57C}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_58C2365F32595BE8DEDCA8C75624FD69019027B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6320A93A-66FE-4234-85A5-36C1916DF84F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>ФИО</t>
   </si>
@@ -483,13 +483,13 @@
       <calculatedColumnFormula>IF(AB2="-",Таблица22[[#This Row],[cw2]]*0.5,Таблица22[[#This Row],[cw2]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="cw3"/>
-    <tableColumn id="25" xr3:uid="{36DFDF46-EB15-46AB-BDE1-999D01094143}" name="cw3итог" dataDxfId="0">
+    <tableColumn id="25" xr3:uid="{36DFDF46-EB15-46AB-BDE1-999D01094143}" name="cw3итог" dataDxfId="2">
       <calculatedColumnFormula>IF(AC2="-",Таблица22[[#This Row],[cw3]]*0.5,Таблица22[[#This Row],[cw3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="всего кр (макс. 25)" dataDxfId="2">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="всего кр (макс. 25)" dataDxfId="1">
       <calculatedColumnFormula>MIN(25,SUM(U2,W2:X2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Всего" dataDxfId="1">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Всего" dataDxfId="0">
       <calculatedColumnFormula>ROUND(Таблица22[[#This Row],[всего дз (макс. 25)]]+Таблица22[[#This Row],[всего кр (макс. 25)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -790,14 +790,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -886,12 +886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -907,12 +907,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -920,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -941,12 +941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -954,12 +954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -991,17 +991,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1041,25 +1041,25 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1388,17 +1388,29 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.5</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="T5">
         <f>MIN(25,SUM(Таблица22[[#This Row],[1]:[17]]))</f>
-        <v>4</v>
+        <v>9.1</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1424,7 +1436,7 @@
       </c>
       <c r="AA5">
         <f>ROUND(Таблица22[[#This Row],[всего дз (макс. 25)]]+Таблица22[[#This Row],[всего кр (макс. 25)]],0)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="s">
         <v>82</v>
@@ -1433,7 +1445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2037,7 +2049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2498,6 +2510,9 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>0.8</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -2509,6 +2524,9 @@
       </c>
       <c r="I21">
         <v>1</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
       </c>
       <c r="K21">
         <f>3/8*2</f>
@@ -2518,12 +2536,14 @@
         <v>0.5</v>
       </c>
       <c r="N21">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="T21">
         <f>MIN(25,SUM(Таблица22[[#This Row],[1]:[17]]))</f>
-        <v>6.583333333333333</v>
+        <v>11.55</v>
       </c>
       <c r="V21">
         <v>3.5</v>
@@ -2532,23 +2552,29 @@
         <f>IF(AB21="-",Таблица22[[#This Row],[cw2]]*0.5,Таблица22[[#This Row],[cw2]])</f>
         <v>1.75</v>
       </c>
+      <c r="X21">
+        <v>2.5</v>
+      </c>
       <c r="Y21">
         <f>IF(AC21="-",Таблица22[[#This Row],[cw3]]*0.5,Таблица22[[#This Row],[cw3]])</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z21">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="AA21">
         <f>ROUND(Таблица22[[#This Row],[всего дз (макс. 25)]]+Таблица22[[#This Row],[всего кр (макс. 25)]],0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2618,7 +2644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2688,7 +2714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2770,7 +2796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>89</v>
       </c>
@@ -2863,12 +2889,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2888,12 +2914,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2917,107 +2943,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
